--- a/_site/Data/CC_Baseline.xlsx
+++ b/_site/Data/CC_Baseline.xlsx
@@ -1,33 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bluer\Dropbox (University of Oregon)\RAPID-CC (1)\Data Management\CC Question Bank\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E1FD45-ED51-403E-A3FB-D64D0C50E115}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="29760" yWindow="960" windowWidth="27015" windowHeight="13785" xr2:uid="{E2B0A033-D676-4172-8F57-A989FAD9EE98}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames/>
+  <calcPr/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mg360hRChOfrzzGhdxV1ekJUaCBtg=="/>
     </ext>
   </extLst>
 </workbook>
@@ -181,12 +163,12 @@
     <t>https://www.census.gov/acs/www/about/why-we-ask-each-question/language/</t>
   </si>
   <si>
+    <t>What language do you primarily speak when you are providing care?</t>
+  </si>
+  <si>
     <t xml:space="preserve">[text entry] </t>
   </si>
   <si>
-    <t>What language do you primarily speak when you are providing care?</t>
-  </si>
-  <si>
     <t>Health &amp; Healthcare</t>
   </si>
   <si>
@@ -194,8 +176,8 @@
   </si>
   <si>
     <t>• Yes
-•  No
-•  I don't know</t>
+• No
+• I don't know</t>
   </si>
   <si>
     <t>RAPID Team Modified from NHIS</t>
@@ -208,30 +190,33 @@
 What type of health insurance or health care coverage do you have?</t>
   </si>
   <si>
-    <t>•  Insurance through a current or former employer or union (by you or another family member)
-•  Insurance purchased from an insurance company (by you or another family member)
-•  Medicare, for people 65 and older, or people with certain disabilities
-•  Medicaid, Medical Assistance, or any kind of government-assistance plan for those with low incomes or a disability
-•  TRICARE or other military healthcare
-•  VA (enrolled for VA healthcare)
-•  Indian Health Service
-•  Any other type of health insurance or health coverage plan (Please Describe) [Free Text]
-•  I don't know</t>
+    <t>• Insurance through a current or former employer or union (by you or another family member)
+• Insurance purchased from an insurance company (by you or another family member)
+• Medicare, for people 65 and older, or people with certain disabilities
+• Medicaid, Medical Assistance, or any kind of government-assistance plan for those with low incomes or a disability
+• TRICARE or other military healthcare
+• VA (enrolled for VA healthcare)
+• Indian Health Service
+• Any other type of health insurance or health coverage plan (Please Describe) [Free Text]
+• I don't know</t>
   </si>
   <si>
     <t>Since the coronavirus (COVID-19) pandemic, have you delayed getting medical care (including physical or mental health visits) for any of the following reasons?
 Indicate how many times each of these barriers has delayed you getting medical care (including physical or mental health visits), leave blank or select 0 if a listed barrier has not delayed you.</t>
   </si>
   <si>
-    <t>•  Cost [Select frequency 0-10]
-•  Unable to get time away from work [Select frequency 0-10]
-•  Inability to find childcare [Select frequency 0-10]
-•  Concern over exposure to coronavirus (COVID-19) [Select frequency 0-10]
-•  Caring for family member [Select frequency 0-10]
-•  Other, please describe: [Free text]</t>
+    <t>• Cost [Select frequency 0-10]
+• Unable to get time away from work [Select frequency 0-10]
+• Inability to find childcare [Select frequency 0-10]
+• Concern over exposure to coronavirus (COVID-19) [Select frequency 0-10]
+• Caring for family member [Select frequency 0-10]
+• Other, please describe: [Free text]</t>
   </si>
   <si>
     <t>RAPID Team Modified</t>
+  </si>
+  <si>
+    <t>COVID-19 (Health/Well-being)</t>
   </si>
   <si>
     <t>Have you been suspected or diagnosed with coronavirus (COVID-19)?</t>
@@ -247,16 +232,16 @@
     <t>Developed by RAPID Team</t>
   </si>
   <si>
-    <t>COVID-19 (Health/Well-being)</t>
+    <t>Health/Well-Being</t>
   </si>
   <si>
     <t>In the past week, how often have you been bothered by the following problems?
 Feeling nervous, anxious, or on edge</t>
   </si>
   <si>
-    <t xml:space="preserve">• Not at all _x000D_
-• Several days _x000D_
-• More than half of the days _x000D_
+    <t xml:space="preserve">• Not at all 
+• Several days 
+• More than half of the days 
 • Nearly every day </t>
   </si>
   <si>
@@ -297,13 +282,16 @@
 Feeling down, depressed, or hopeless</t>
   </si>
   <si>
-    <t>Health/Well-Being</t>
-  </si>
-  <si>
-    <t>• Strongly agree (SA)  _x000D_
-• Agree (A) _x000D_
-• Not sure (NS) _x000D_
-• Disagree (D) _x000D_
+    <t>Stress (adapted from Parenting Stress Index)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior to the coronavirus (COVID-19) pandemic, I often felt like I could not handle things very well </t>
+  </si>
+  <si>
+    <t>• Strongly agree (SA)  
+• Agree (A) 
+• Not sure (NS) 
+• Disagree (D) 
 • Strongly Disagree (SD)</t>
   </si>
   <si>
@@ -317,6 +305,9 @@
     <t xml:space="preserve">Since the coronavirus (COVID-19) pandemic began, I often felt like I could not handle things very well </t>
   </si>
   <si>
+    <t xml:space="preserve">Prior to the coronavirus (COVID-19) pandemic, things were manageable, and any problems are easily solved </t>
+  </si>
+  <si>
     <t>RAPID Team Modified
 PSOC</t>
   </si>
@@ -324,19 +315,13 @@
     <t>https://researchingparents.wordpress.com/2013/02/15/parenting-sense-of-competence-psoc/</t>
   </si>
   <si>
-    <t xml:space="preserve">Prior to the coronavirus (COVID-19) pandemic, I often felt like I could not handle things very well </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prior to the coronavirus (COVID-19) pandemic, things were manageable, and any problems are easily solved </t>
-  </si>
-  <si>
     <t xml:space="preserve">Since the coronavirus (COVID-19) pandemic began, things are manageable, and any problems are easily solved </t>
   </si>
   <si>
-    <t>Stress (adapted from Parenting Stress Index)</t>
-  </si>
-  <si>
     <t xml:space="preserve">(revise to be general, not about parenting) Do you feel you could benefit from additional resources and supports on parenting and how best to support your child’s development? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior to the coronavirus (COVID-19) pandemic when you felt overwhelmed or stressed, did you get the support you needed? </t>
   </si>
   <si>
     <t xml:space="preserve">• 1 – No I did not feel supported 
@@ -348,29 +333,28 @@
   <si>
     <t xml:space="preserve">In the last week, when you felt overwhelmed or stressed, did you get the support you needed? </t>
   </si>
-  <si>
-    <t xml:space="preserve">Prior to the coronavirus (COVID-19) pandemic when you felt overwhelmed or stressed, did you get the support you needed? </t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="3">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -378,78 +362,76 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+  <cellXfs count="7">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4472C4"/>
@@ -473,113 +455,19 @@
         <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="0563C1"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -720,30 +608,24 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E88B27-ECC3-4348-AEE0-0EA67C4E4DAE}">
-  <dimension ref="A1:E29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="5" width="50.6640625" customWidth="1"/>
+    <col customWidth="1" min="1" max="5" width="50.71"/>
+    <col customWidth="1" min="6" max="26" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" ht="15.0" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -759,8 +641,29 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+    </row>
+    <row r="2" ht="15.0" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -774,8 +677,29 @@
         <v>8</v>
       </c>
       <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+    </row>
+    <row r="3" ht="15.0" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -789,8 +713,29 @@
         <v>8</v>
       </c>
       <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+    </row>
+    <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -804,8 +749,29 @@
         <v>8</v>
       </c>
       <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+    </row>
+    <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +785,29 @@
         <v>15</v>
       </c>
       <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+    </row>
+    <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -836,8 +823,29 @@
       <c r="E6" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+    </row>
+    <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -853,8 +861,29 @@
       <c r="E7" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+    </row>
+    <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -870,8 +899,29 @@
       <c r="E8" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" s="3" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+    </row>
+    <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,8 +937,29 @@
       <c r="E9" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" s="3" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+    </row>
+    <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -902,8 +973,29 @@
         <v>8</v>
       </c>
       <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" s="3" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+    </row>
+    <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -919,30 +1011,72 @@
       <c r="E11" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+    </row>
+    <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -951,15 +1085,36 @@
       <c r="E13" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" s="3" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+    </row>
+    <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -968,272 +1123,1582 @@
       <c r="E14" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" s="3" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+    </row>
+    <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="6" t="s">
         <v>45</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" s="3" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+    </row>
+    <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+    </row>
+    <row r="18" ht="14.25" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+    </row>
+    <row r="19" ht="14.25" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" ht="14.25" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+    </row>
+    <row r="21" ht="14.25" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+    </row>
+    <row r="22" ht="14.25" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="3" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="5" t="s">
+      <c r="D22" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="E22" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+    </row>
+    <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+    </row>
+    <row r="24" ht="14.25" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+    </row>
+    <row r="25" ht="14.25" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="C26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+    </row>
+    <row r="27" ht="14.25" customHeight="1">
+      <c r="A27" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+    </row>
+    <row r="28" ht="14.25" customHeight="1">
+      <c r="A28" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="B28" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+    </row>
+    <row r="29" ht="14.25" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="D29" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E29" s="2"/>
-    </row>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+    </row>
+    <row r="30" ht="14.25" customHeight="1"/>
+    <row r="31" ht="14.25" customHeight="1"/>
+    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="33" ht="14.25" customHeight="1"/>
+    <row r="34" ht="14.25" customHeight="1"/>
+    <row r="35" ht="14.25" customHeight="1"/>
+    <row r="36" ht="14.25" customHeight="1"/>
+    <row r="37" ht="14.25" customHeight="1"/>
+    <row r="38" ht="14.25" customHeight="1"/>
+    <row r="39" ht="14.25" customHeight="1"/>
+    <row r="40" ht="14.25" customHeight="1"/>
+    <row r="41" ht="14.25" customHeight="1"/>
+    <row r="42" ht="14.25" customHeight="1"/>
+    <row r="43" ht="14.25" customHeight="1"/>
+    <row r="44" ht="14.25" customHeight="1"/>
+    <row r="45" ht="14.25" customHeight="1"/>
+    <row r="46" ht="14.25" customHeight="1"/>
+    <row r="47" ht="14.25" customHeight="1"/>
+    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="49" ht="14.25" customHeight="1"/>
+    <row r="50" ht="14.25" customHeight="1"/>
+    <row r="51" ht="14.25" customHeight="1"/>
+    <row r="52" ht="14.25" customHeight="1"/>
+    <row r="53" ht="14.25" customHeight="1"/>
+    <row r="54" ht="14.25" customHeight="1"/>
+    <row r="55" ht="14.25" customHeight="1"/>
+    <row r="56" ht="14.25" customHeight="1"/>
+    <row r="57" ht="14.25" customHeight="1"/>
+    <row r="58" ht="14.25" customHeight="1"/>
+    <row r="59" ht="14.25" customHeight="1"/>
+    <row r="60" ht="14.25" customHeight="1"/>
+    <row r="61" ht="14.25" customHeight="1"/>
+    <row r="62" ht="14.25" customHeight="1"/>
+    <row r="63" ht="14.25" customHeight="1"/>
+    <row r="64" ht="14.25" customHeight="1"/>
+    <row r="65" ht="14.25" customHeight="1"/>
+    <row r="66" ht="14.25" customHeight="1"/>
+    <row r="67" ht="14.25" customHeight="1"/>
+    <row r="68" ht="14.25" customHeight="1"/>
+    <row r="69" ht="14.25" customHeight="1"/>
+    <row r="70" ht="14.25" customHeight="1"/>
+    <row r="71" ht="14.25" customHeight="1"/>
+    <row r="72" ht="14.25" customHeight="1"/>
+    <row r="73" ht="14.25" customHeight="1"/>
+    <row r="74" ht="14.25" customHeight="1"/>
+    <row r="75" ht="14.25" customHeight="1"/>
+    <row r="76" ht="14.25" customHeight="1"/>
+    <row r="77" ht="14.25" customHeight="1"/>
+    <row r="78" ht="14.25" customHeight="1"/>
+    <row r="79" ht="14.25" customHeight="1"/>
+    <row r="80" ht="14.25" customHeight="1"/>
+    <row r="81" ht="14.25" customHeight="1"/>
+    <row r="82" ht="14.25" customHeight="1"/>
+    <row r="83" ht="14.25" customHeight="1"/>
+    <row r="84" ht="14.25" customHeight="1"/>
+    <row r="85" ht="14.25" customHeight="1"/>
+    <row r="86" ht="14.25" customHeight="1"/>
+    <row r="87" ht="14.25" customHeight="1"/>
+    <row r="88" ht="14.25" customHeight="1"/>
+    <row r="89" ht="14.25" customHeight="1"/>
+    <row r="90" ht="14.25" customHeight="1"/>
+    <row r="91" ht="14.25" customHeight="1"/>
+    <row r="92" ht="14.25" customHeight="1"/>
+    <row r="93" ht="14.25" customHeight="1"/>
+    <row r="94" ht="14.25" customHeight="1"/>
+    <row r="95" ht="14.25" customHeight="1"/>
+    <row r="96" ht="14.25" customHeight="1"/>
+    <row r="97" ht="14.25" customHeight="1"/>
+    <row r="98" ht="14.25" customHeight="1"/>
+    <row r="99" ht="14.25" customHeight="1"/>
+    <row r="100" ht="14.25" customHeight="1"/>
+    <row r="101" ht="14.25" customHeight="1"/>
+    <row r="102" ht="14.25" customHeight="1"/>
+    <row r="103" ht="14.25" customHeight="1"/>
+    <row r="104" ht="14.25" customHeight="1"/>
+    <row r="105" ht="14.25" customHeight="1"/>
+    <row r="106" ht="14.25" customHeight="1"/>
+    <row r="107" ht="14.25" customHeight="1"/>
+    <row r="108" ht="14.25" customHeight="1"/>
+    <row r="109" ht="14.25" customHeight="1"/>
+    <row r="110" ht="14.25" customHeight="1"/>
+    <row r="111" ht="14.25" customHeight="1"/>
+    <row r="112" ht="14.25" customHeight="1"/>
+    <row r="113" ht="14.25" customHeight="1"/>
+    <row r="114" ht="14.25" customHeight="1"/>
+    <row r="115" ht="14.25" customHeight="1"/>
+    <row r="116" ht="14.25" customHeight="1"/>
+    <row r="117" ht="14.25" customHeight="1"/>
+    <row r="118" ht="14.25" customHeight="1"/>
+    <row r="119" ht="14.25" customHeight="1"/>
+    <row r="120" ht="14.25" customHeight="1"/>
+    <row r="121" ht="14.25" customHeight="1"/>
+    <row r="122" ht="14.25" customHeight="1"/>
+    <row r="123" ht="14.25" customHeight="1"/>
+    <row r="124" ht="14.25" customHeight="1"/>
+    <row r="125" ht="14.25" customHeight="1"/>
+    <row r="126" ht="14.25" customHeight="1"/>
+    <row r="127" ht="14.25" customHeight="1"/>
+    <row r="128" ht="14.25" customHeight="1"/>
+    <row r="129" ht="14.25" customHeight="1"/>
+    <row r="130" ht="14.25" customHeight="1"/>
+    <row r="131" ht="14.25" customHeight="1"/>
+    <row r="132" ht="14.25" customHeight="1"/>
+    <row r="133" ht="14.25" customHeight="1"/>
+    <row r="134" ht="14.25" customHeight="1"/>
+    <row r="135" ht="14.25" customHeight="1"/>
+    <row r="136" ht="14.25" customHeight="1"/>
+    <row r="137" ht="14.25" customHeight="1"/>
+    <row r="138" ht="14.25" customHeight="1"/>
+    <row r="139" ht="14.25" customHeight="1"/>
+    <row r="140" ht="14.25" customHeight="1"/>
+    <row r="141" ht="14.25" customHeight="1"/>
+    <row r="142" ht="14.25" customHeight="1"/>
+    <row r="143" ht="14.25" customHeight="1"/>
+    <row r="144" ht="14.25" customHeight="1"/>
+    <row r="145" ht="14.25" customHeight="1"/>
+    <row r="146" ht="14.25" customHeight="1"/>
+    <row r="147" ht="14.25" customHeight="1"/>
+    <row r="148" ht="14.25" customHeight="1"/>
+    <row r="149" ht="14.25" customHeight="1"/>
+    <row r="150" ht="14.25" customHeight="1"/>
+    <row r="151" ht="14.25" customHeight="1"/>
+    <row r="152" ht="14.25" customHeight="1"/>
+    <row r="153" ht="14.25" customHeight="1"/>
+    <row r="154" ht="14.25" customHeight="1"/>
+    <row r="155" ht="14.25" customHeight="1"/>
+    <row r="156" ht="14.25" customHeight="1"/>
+    <row r="157" ht="14.25" customHeight="1"/>
+    <row r="158" ht="14.25" customHeight="1"/>
+    <row r="159" ht="14.25" customHeight="1"/>
+    <row r="160" ht="14.25" customHeight="1"/>
+    <row r="161" ht="14.25" customHeight="1"/>
+    <row r="162" ht="14.25" customHeight="1"/>
+    <row r="163" ht="14.25" customHeight="1"/>
+    <row r="164" ht="14.25" customHeight="1"/>
+    <row r="165" ht="14.25" customHeight="1"/>
+    <row r="166" ht="14.25" customHeight="1"/>
+    <row r="167" ht="14.25" customHeight="1"/>
+    <row r="168" ht="14.25" customHeight="1"/>
+    <row r="169" ht="14.25" customHeight="1"/>
+    <row r="170" ht="14.25" customHeight="1"/>
+    <row r="171" ht="14.25" customHeight="1"/>
+    <row r="172" ht="14.25" customHeight="1"/>
+    <row r="173" ht="14.25" customHeight="1"/>
+    <row r="174" ht="14.25" customHeight="1"/>
+    <row r="175" ht="14.25" customHeight="1"/>
+    <row r="176" ht="14.25" customHeight="1"/>
+    <row r="177" ht="14.25" customHeight="1"/>
+    <row r="178" ht="14.25" customHeight="1"/>
+    <row r="179" ht="14.25" customHeight="1"/>
+    <row r="180" ht="14.25" customHeight="1"/>
+    <row r="181" ht="14.25" customHeight="1"/>
+    <row r="182" ht="14.25" customHeight="1"/>
+    <row r="183" ht="14.25" customHeight="1"/>
+    <row r="184" ht="14.25" customHeight="1"/>
+    <row r="185" ht="14.25" customHeight="1"/>
+    <row r="186" ht="14.25" customHeight="1"/>
+    <row r="187" ht="14.25" customHeight="1"/>
+    <row r="188" ht="14.25" customHeight="1"/>
+    <row r="189" ht="14.25" customHeight="1"/>
+    <row r="190" ht="14.25" customHeight="1"/>
+    <row r="191" ht="14.25" customHeight="1"/>
+    <row r="192" ht="14.25" customHeight="1"/>
+    <row r="193" ht="14.25" customHeight="1"/>
+    <row r="194" ht="14.25" customHeight="1"/>
+    <row r="195" ht="14.25" customHeight="1"/>
+    <row r="196" ht="14.25" customHeight="1"/>
+    <row r="197" ht="14.25" customHeight="1"/>
+    <row r="198" ht="14.25" customHeight="1"/>
+    <row r="199" ht="14.25" customHeight="1"/>
+    <row r="200" ht="14.25" customHeight="1"/>
+    <row r="201" ht="14.25" customHeight="1"/>
+    <row r="202" ht="14.25" customHeight="1"/>
+    <row r="203" ht="14.25" customHeight="1"/>
+    <row r="204" ht="14.25" customHeight="1"/>
+    <row r="205" ht="14.25" customHeight="1"/>
+    <row r="206" ht="14.25" customHeight="1"/>
+    <row r="207" ht="14.25" customHeight="1"/>
+    <row r="208" ht="14.25" customHeight="1"/>
+    <row r="209" ht="14.25" customHeight="1"/>
+    <row r="210" ht="14.25" customHeight="1"/>
+    <row r="211" ht="14.25" customHeight="1"/>
+    <row r="212" ht="14.25" customHeight="1"/>
+    <row r="213" ht="14.25" customHeight="1"/>
+    <row r="214" ht="14.25" customHeight="1"/>
+    <row r="215" ht="14.25" customHeight="1"/>
+    <row r="216" ht="14.25" customHeight="1"/>
+    <row r="217" ht="14.25" customHeight="1"/>
+    <row r="218" ht="14.25" customHeight="1"/>
+    <row r="219" ht="14.25" customHeight="1"/>
+    <row r="220" ht="14.25" customHeight="1"/>
+    <row r="221" ht="14.25" customHeight="1"/>
+    <row r="222" ht="14.25" customHeight="1"/>
+    <row r="223" ht="14.25" customHeight="1"/>
+    <row r="224" ht="14.25" customHeight="1"/>
+    <row r="225" ht="14.25" customHeight="1"/>
+    <row r="226" ht="14.25" customHeight="1"/>
+    <row r="227" ht="14.25" customHeight="1"/>
+    <row r="228" ht="14.25" customHeight="1"/>
+    <row r="229" ht="14.25" customHeight="1"/>
+    <row r="230" ht="14.25" customHeight="1"/>
+    <row r="231" ht="14.25" customHeight="1"/>
+    <row r="232" ht="14.25" customHeight="1"/>
+    <row r="233" ht="14.25" customHeight="1"/>
+    <row r="234" ht="14.25" customHeight="1"/>
+    <row r="235" ht="14.25" customHeight="1"/>
+    <row r="236" ht="14.25" customHeight="1"/>
+    <row r="237" ht="14.25" customHeight="1"/>
+    <row r="238" ht="14.25" customHeight="1"/>
+    <row r="239" ht="14.25" customHeight="1"/>
+    <row r="240" ht="14.25" customHeight="1"/>
+    <row r="241" ht="14.25" customHeight="1"/>
+    <row r="242" ht="14.25" customHeight="1"/>
+    <row r="243" ht="14.25" customHeight="1"/>
+    <row r="244" ht="14.25" customHeight="1"/>
+    <row r="245" ht="14.25" customHeight="1"/>
+    <row r="246" ht="14.25" customHeight="1"/>
+    <row r="247" ht="14.25" customHeight="1"/>
+    <row r="248" ht="14.25" customHeight="1"/>
+    <row r="249" ht="14.25" customHeight="1"/>
+    <row r="250" ht="14.25" customHeight="1"/>
+    <row r="251" ht="14.25" customHeight="1"/>
+    <row r="252" ht="14.25" customHeight="1"/>
+    <row r="253" ht="14.25" customHeight="1"/>
+    <row r="254" ht="14.25" customHeight="1"/>
+    <row r="255" ht="14.25" customHeight="1"/>
+    <row r="256" ht="14.25" customHeight="1"/>
+    <row r="257" ht="14.25" customHeight="1"/>
+    <row r="258" ht="14.25" customHeight="1"/>
+    <row r="259" ht="14.25" customHeight="1"/>
+    <row r="260" ht="14.25" customHeight="1"/>
+    <row r="261" ht="14.25" customHeight="1"/>
+    <row r="262" ht="14.25" customHeight="1"/>
+    <row r="263" ht="14.25" customHeight="1"/>
+    <row r="264" ht="14.25" customHeight="1"/>
+    <row r="265" ht="14.25" customHeight="1"/>
+    <row r="266" ht="14.25" customHeight="1"/>
+    <row r="267" ht="14.25" customHeight="1"/>
+    <row r="268" ht="14.25" customHeight="1"/>
+    <row r="269" ht="14.25" customHeight="1"/>
+    <row r="270" ht="14.25" customHeight="1"/>
+    <row r="271" ht="14.25" customHeight="1"/>
+    <row r="272" ht="14.25" customHeight="1"/>
+    <row r="273" ht="14.25" customHeight="1"/>
+    <row r="274" ht="14.25" customHeight="1"/>
+    <row r="275" ht="14.25" customHeight="1"/>
+    <row r="276" ht="14.25" customHeight="1"/>
+    <row r="277" ht="14.25" customHeight="1"/>
+    <row r="278" ht="14.25" customHeight="1"/>
+    <row r="279" ht="14.25" customHeight="1"/>
+    <row r="280" ht="14.25" customHeight="1"/>
+    <row r="281" ht="14.25" customHeight="1"/>
+    <row r="282" ht="14.25" customHeight="1"/>
+    <row r="283" ht="14.25" customHeight="1"/>
+    <row r="284" ht="14.25" customHeight="1"/>
+    <row r="285" ht="14.25" customHeight="1"/>
+    <row r="286" ht="14.25" customHeight="1"/>
+    <row r="287" ht="14.25" customHeight="1"/>
+    <row r="288" ht="14.25" customHeight="1"/>
+    <row r="289" ht="14.25" customHeight="1"/>
+    <row r="290" ht="14.25" customHeight="1"/>
+    <row r="291" ht="14.25" customHeight="1"/>
+    <row r="292" ht="14.25" customHeight="1"/>
+    <row r="293" ht="14.25" customHeight="1"/>
+    <row r="294" ht="14.25" customHeight="1"/>
+    <row r="295" ht="14.25" customHeight="1"/>
+    <row r="296" ht="14.25" customHeight="1"/>
+    <row r="297" ht="14.25" customHeight="1"/>
+    <row r="298" ht="14.25" customHeight="1"/>
+    <row r="299" ht="14.25" customHeight="1"/>
+    <row r="300" ht="14.25" customHeight="1"/>
+    <row r="301" ht="14.25" customHeight="1"/>
+    <row r="302" ht="14.25" customHeight="1"/>
+    <row r="303" ht="14.25" customHeight="1"/>
+    <row r="304" ht="14.25" customHeight="1"/>
+    <row r="305" ht="14.25" customHeight="1"/>
+    <row r="306" ht="14.25" customHeight="1"/>
+    <row r="307" ht="14.25" customHeight="1"/>
+    <row r="308" ht="14.25" customHeight="1"/>
+    <row r="309" ht="14.25" customHeight="1"/>
+    <row r="310" ht="14.25" customHeight="1"/>
+    <row r="311" ht="14.25" customHeight="1"/>
+    <row r="312" ht="14.25" customHeight="1"/>
+    <row r="313" ht="14.25" customHeight="1"/>
+    <row r="314" ht="14.25" customHeight="1"/>
+    <row r="315" ht="14.25" customHeight="1"/>
+    <row r="316" ht="14.25" customHeight="1"/>
+    <row r="317" ht="14.25" customHeight="1"/>
+    <row r="318" ht="14.25" customHeight="1"/>
+    <row r="319" ht="14.25" customHeight="1"/>
+    <row r="320" ht="14.25" customHeight="1"/>
+    <row r="321" ht="14.25" customHeight="1"/>
+    <row r="322" ht="14.25" customHeight="1"/>
+    <row r="323" ht="14.25" customHeight="1"/>
+    <row r="324" ht="14.25" customHeight="1"/>
+    <row r="325" ht="14.25" customHeight="1"/>
+    <row r="326" ht="14.25" customHeight="1"/>
+    <row r="327" ht="14.25" customHeight="1"/>
+    <row r="328" ht="14.25" customHeight="1"/>
+    <row r="329" ht="14.25" customHeight="1"/>
+    <row r="330" ht="14.25" customHeight="1"/>
+    <row r="331" ht="14.25" customHeight="1"/>
+    <row r="332" ht="14.25" customHeight="1"/>
+    <row r="333" ht="14.25" customHeight="1"/>
+    <row r="334" ht="14.25" customHeight="1"/>
+    <row r="335" ht="14.25" customHeight="1"/>
+    <row r="336" ht="14.25" customHeight="1"/>
+    <row r="337" ht="14.25" customHeight="1"/>
+    <row r="338" ht="14.25" customHeight="1"/>
+    <row r="339" ht="14.25" customHeight="1"/>
+    <row r="340" ht="14.25" customHeight="1"/>
+    <row r="341" ht="14.25" customHeight="1"/>
+    <row r="342" ht="14.25" customHeight="1"/>
+    <row r="343" ht="14.25" customHeight="1"/>
+    <row r="344" ht="14.25" customHeight="1"/>
+    <row r="345" ht="14.25" customHeight="1"/>
+    <row r="346" ht="14.25" customHeight="1"/>
+    <row r="347" ht="14.25" customHeight="1"/>
+    <row r="348" ht="14.25" customHeight="1"/>
+    <row r="349" ht="14.25" customHeight="1"/>
+    <row r="350" ht="14.25" customHeight="1"/>
+    <row r="351" ht="14.25" customHeight="1"/>
+    <row r="352" ht="14.25" customHeight="1"/>
+    <row r="353" ht="14.25" customHeight="1"/>
+    <row r="354" ht="14.25" customHeight="1"/>
+    <row r="355" ht="14.25" customHeight="1"/>
+    <row r="356" ht="14.25" customHeight="1"/>
+    <row r="357" ht="14.25" customHeight="1"/>
+    <row r="358" ht="14.25" customHeight="1"/>
+    <row r="359" ht="14.25" customHeight="1"/>
+    <row r="360" ht="14.25" customHeight="1"/>
+    <row r="361" ht="14.25" customHeight="1"/>
+    <row r="362" ht="14.25" customHeight="1"/>
+    <row r="363" ht="14.25" customHeight="1"/>
+    <row r="364" ht="14.25" customHeight="1"/>
+    <row r="365" ht="14.25" customHeight="1"/>
+    <row r="366" ht="14.25" customHeight="1"/>
+    <row r="367" ht="14.25" customHeight="1"/>
+    <row r="368" ht="14.25" customHeight="1"/>
+    <row r="369" ht="14.25" customHeight="1"/>
+    <row r="370" ht="14.25" customHeight="1"/>
+    <row r="371" ht="14.25" customHeight="1"/>
+    <row r="372" ht="14.25" customHeight="1"/>
+    <row r="373" ht="14.25" customHeight="1"/>
+    <row r="374" ht="14.25" customHeight="1"/>
+    <row r="375" ht="14.25" customHeight="1"/>
+    <row r="376" ht="14.25" customHeight="1"/>
+    <row r="377" ht="14.25" customHeight="1"/>
+    <row r="378" ht="14.25" customHeight="1"/>
+    <row r="379" ht="14.25" customHeight="1"/>
+    <row r="380" ht="14.25" customHeight="1"/>
+    <row r="381" ht="14.25" customHeight="1"/>
+    <row r="382" ht="14.25" customHeight="1"/>
+    <row r="383" ht="14.25" customHeight="1"/>
+    <row r="384" ht="14.25" customHeight="1"/>
+    <row r="385" ht="14.25" customHeight="1"/>
+    <row r="386" ht="14.25" customHeight="1"/>
+    <row r="387" ht="14.25" customHeight="1"/>
+    <row r="388" ht="14.25" customHeight="1"/>
+    <row r="389" ht="14.25" customHeight="1"/>
+    <row r="390" ht="14.25" customHeight="1"/>
+    <row r="391" ht="14.25" customHeight="1"/>
+    <row r="392" ht="14.25" customHeight="1"/>
+    <row r="393" ht="14.25" customHeight="1"/>
+    <row r="394" ht="14.25" customHeight="1"/>
+    <row r="395" ht="14.25" customHeight="1"/>
+    <row r="396" ht="14.25" customHeight="1"/>
+    <row r="397" ht="14.25" customHeight="1"/>
+    <row r="398" ht="14.25" customHeight="1"/>
+    <row r="399" ht="14.25" customHeight="1"/>
+    <row r="400" ht="14.25" customHeight="1"/>
+    <row r="401" ht="14.25" customHeight="1"/>
+    <row r="402" ht="14.25" customHeight="1"/>
+    <row r="403" ht="14.25" customHeight="1"/>
+    <row r="404" ht="14.25" customHeight="1"/>
+    <row r="405" ht="14.25" customHeight="1"/>
+    <row r="406" ht="14.25" customHeight="1"/>
+    <row r="407" ht="14.25" customHeight="1"/>
+    <row r="408" ht="14.25" customHeight="1"/>
+    <row r="409" ht="14.25" customHeight="1"/>
+    <row r="410" ht="14.25" customHeight="1"/>
+    <row r="411" ht="14.25" customHeight="1"/>
+    <row r="412" ht="14.25" customHeight="1"/>
+    <row r="413" ht="14.25" customHeight="1"/>
+    <row r="414" ht="14.25" customHeight="1"/>
+    <row r="415" ht="14.25" customHeight="1"/>
+    <row r="416" ht="14.25" customHeight="1"/>
+    <row r="417" ht="14.25" customHeight="1"/>
+    <row r="418" ht="14.25" customHeight="1"/>
+    <row r="419" ht="14.25" customHeight="1"/>
+    <row r="420" ht="14.25" customHeight="1"/>
+    <row r="421" ht="14.25" customHeight="1"/>
+    <row r="422" ht="14.25" customHeight="1"/>
+    <row r="423" ht="14.25" customHeight="1"/>
+    <row r="424" ht="14.25" customHeight="1"/>
+    <row r="425" ht="14.25" customHeight="1"/>
+    <row r="426" ht="14.25" customHeight="1"/>
+    <row r="427" ht="14.25" customHeight="1"/>
+    <row r="428" ht="14.25" customHeight="1"/>
+    <row r="429" ht="14.25" customHeight="1"/>
+    <row r="430" ht="14.25" customHeight="1"/>
+    <row r="431" ht="14.25" customHeight="1"/>
+    <row r="432" ht="14.25" customHeight="1"/>
+    <row r="433" ht="14.25" customHeight="1"/>
+    <row r="434" ht="14.25" customHeight="1"/>
+    <row r="435" ht="14.25" customHeight="1"/>
+    <row r="436" ht="14.25" customHeight="1"/>
+    <row r="437" ht="14.25" customHeight="1"/>
+    <row r="438" ht="14.25" customHeight="1"/>
+    <row r="439" ht="14.25" customHeight="1"/>
+    <row r="440" ht="14.25" customHeight="1"/>
+    <row r="441" ht="14.25" customHeight="1"/>
+    <row r="442" ht="14.25" customHeight="1"/>
+    <row r="443" ht="14.25" customHeight="1"/>
+    <row r="444" ht="14.25" customHeight="1"/>
+    <row r="445" ht="14.25" customHeight="1"/>
+    <row r="446" ht="14.25" customHeight="1"/>
+    <row r="447" ht="14.25" customHeight="1"/>
+    <row r="448" ht="14.25" customHeight="1"/>
+    <row r="449" ht="14.25" customHeight="1"/>
+    <row r="450" ht="14.25" customHeight="1"/>
+    <row r="451" ht="14.25" customHeight="1"/>
+    <row r="452" ht="14.25" customHeight="1"/>
+    <row r="453" ht="14.25" customHeight="1"/>
+    <row r="454" ht="14.25" customHeight="1"/>
+    <row r="455" ht="14.25" customHeight="1"/>
+    <row r="456" ht="14.25" customHeight="1"/>
+    <row r="457" ht="14.25" customHeight="1"/>
+    <row r="458" ht="14.25" customHeight="1"/>
+    <row r="459" ht="14.25" customHeight="1"/>
+    <row r="460" ht="14.25" customHeight="1"/>
+    <row r="461" ht="14.25" customHeight="1"/>
+    <row r="462" ht="14.25" customHeight="1"/>
+    <row r="463" ht="14.25" customHeight="1"/>
+    <row r="464" ht="14.25" customHeight="1"/>
+    <row r="465" ht="14.25" customHeight="1"/>
+    <row r="466" ht="14.25" customHeight="1"/>
+    <row r="467" ht="14.25" customHeight="1"/>
+    <row r="468" ht="14.25" customHeight="1"/>
+    <row r="469" ht="14.25" customHeight="1"/>
+    <row r="470" ht="14.25" customHeight="1"/>
+    <row r="471" ht="14.25" customHeight="1"/>
+    <row r="472" ht="14.25" customHeight="1"/>
+    <row r="473" ht="14.25" customHeight="1"/>
+    <row r="474" ht="14.25" customHeight="1"/>
+    <row r="475" ht="14.25" customHeight="1"/>
+    <row r="476" ht="14.25" customHeight="1"/>
+    <row r="477" ht="14.25" customHeight="1"/>
+    <row r="478" ht="14.25" customHeight="1"/>
+    <row r="479" ht="14.25" customHeight="1"/>
+    <row r="480" ht="14.25" customHeight="1"/>
+    <row r="481" ht="14.25" customHeight="1"/>
+    <row r="482" ht="14.25" customHeight="1"/>
+    <row r="483" ht="14.25" customHeight="1"/>
+    <row r="484" ht="14.25" customHeight="1"/>
+    <row r="485" ht="14.25" customHeight="1"/>
+    <row r="486" ht="14.25" customHeight="1"/>
+    <row r="487" ht="14.25" customHeight="1"/>
+    <row r="488" ht="14.25" customHeight="1"/>
+    <row r="489" ht="14.25" customHeight="1"/>
+    <row r="490" ht="14.25" customHeight="1"/>
+    <row r="491" ht="14.25" customHeight="1"/>
+    <row r="492" ht="14.25" customHeight="1"/>
+    <row r="493" ht="14.25" customHeight="1"/>
+    <row r="494" ht="14.25" customHeight="1"/>
+    <row r="495" ht="14.25" customHeight="1"/>
+    <row r="496" ht="14.25" customHeight="1"/>
+    <row r="497" ht="14.25" customHeight="1"/>
+    <row r="498" ht="14.25" customHeight="1"/>
+    <row r="499" ht="14.25" customHeight="1"/>
+    <row r="500" ht="14.25" customHeight="1"/>
+    <row r="501" ht="14.25" customHeight="1"/>
+    <row r="502" ht="14.25" customHeight="1"/>
+    <row r="503" ht="14.25" customHeight="1"/>
+    <row r="504" ht="14.25" customHeight="1"/>
+    <row r="505" ht="14.25" customHeight="1"/>
+    <row r="506" ht="14.25" customHeight="1"/>
+    <row r="507" ht="14.25" customHeight="1"/>
+    <row r="508" ht="14.25" customHeight="1"/>
+    <row r="509" ht="14.25" customHeight="1"/>
+    <row r="510" ht="14.25" customHeight="1"/>
+    <row r="511" ht="14.25" customHeight="1"/>
+    <row r="512" ht="14.25" customHeight="1"/>
+    <row r="513" ht="14.25" customHeight="1"/>
+    <row r="514" ht="14.25" customHeight="1"/>
+    <row r="515" ht="14.25" customHeight="1"/>
+    <row r="516" ht="14.25" customHeight="1"/>
+    <row r="517" ht="14.25" customHeight="1"/>
+    <row r="518" ht="14.25" customHeight="1"/>
+    <row r="519" ht="14.25" customHeight="1"/>
+    <row r="520" ht="14.25" customHeight="1"/>
+    <row r="521" ht="14.25" customHeight="1"/>
+    <row r="522" ht="14.25" customHeight="1"/>
+    <row r="523" ht="14.25" customHeight="1"/>
+    <row r="524" ht="14.25" customHeight="1"/>
+    <row r="525" ht="14.25" customHeight="1"/>
+    <row r="526" ht="14.25" customHeight="1"/>
+    <row r="527" ht="14.25" customHeight="1"/>
+    <row r="528" ht="14.25" customHeight="1"/>
+    <row r="529" ht="14.25" customHeight="1"/>
+    <row r="530" ht="14.25" customHeight="1"/>
+    <row r="531" ht="14.25" customHeight="1"/>
+    <row r="532" ht="14.25" customHeight="1"/>
+    <row r="533" ht="14.25" customHeight="1"/>
+    <row r="534" ht="14.25" customHeight="1"/>
+    <row r="535" ht="14.25" customHeight="1"/>
+    <row r="536" ht="14.25" customHeight="1"/>
+    <row r="537" ht="14.25" customHeight="1"/>
+    <row r="538" ht="14.25" customHeight="1"/>
+    <row r="539" ht="14.25" customHeight="1"/>
+    <row r="540" ht="14.25" customHeight="1"/>
+    <row r="541" ht="14.25" customHeight="1"/>
+    <row r="542" ht="14.25" customHeight="1"/>
+    <row r="543" ht="14.25" customHeight="1"/>
+    <row r="544" ht="14.25" customHeight="1"/>
+    <row r="545" ht="14.25" customHeight="1"/>
+    <row r="546" ht="14.25" customHeight="1"/>
+    <row r="547" ht="14.25" customHeight="1"/>
+    <row r="548" ht="14.25" customHeight="1"/>
+    <row r="549" ht="14.25" customHeight="1"/>
+    <row r="550" ht="14.25" customHeight="1"/>
+    <row r="551" ht="14.25" customHeight="1"/>
+    <row r="552" ht="14.25" customHeight="1"/>
+    <row r="553" ht="14.25" customHeight="1"/>
+    <row r="554" ht="14.25" customHeight="1"/>
+    <row r="555" ht="14.25" customHeight="1"/>
+    <row r="556" ht="14.25" customHeight="1"/>
+    <row r="557" ht="14.25" customHeight="1"/>
+    <row r="558" ht="14.25" customHeight="1"/>
+    <row r="559" ht="14.25" customHeight="1"/>
+    <row r="560" ht="14.25" customHeight="1"/>
+    <row r="561" ht="14.25" customHeight="1"/>
+    <row r="562" ht="14.25" customHeight="1"/>
+    <row r="563" ht="14.25" customHeight="1"/>
+    <row r="564" ht="14.25" customHeight="1"/>
+    <row r="565" ht="14.25" customHeight="1"/>
+    <row r="566" ht="14.25" customHeight="1"/>
+    <row r="567" ht="14.25" customHeight="1"/>
+    <row r="568" ht="14.25" customHeight="1"/>
+    <row r="569" ht="14.25" customHeight="1"/>
+    <row r="570" ht="14.25" customHeight="1"/>
+    <row r="571" ht="14.25" customHeight="1"/>
+    <row r="572" ht="14.25" customHeight="1"/>
+    <row r="573" ht="14.25" customHeight="1"/>
+    <row r="574" ht="14.25" customHeight="1"/>
+    <row r="575" ht="14.25" customHeight="1"/>
+    <row r="576" ht="14.25" customHeight="1"/>
+    <row r="577" ht="14.25" customHeight="1"/>
+    <row r="578" ht="14.25" customHeight="1"/>
+    <row r="579" ht="14.25" customHeight="1"/>
+    <row r="580" ht="14.25" customHeight="1"/>
+    <row r="581" ht="14.25" customHeight="1"/>
+    <row r="582" ht="14.25" customHeight="1"/>
+    <row r="583" ht="14.25" customHeight="1"/>
+    <row r="584" ht="14.25" customHeight="1"/>
+    <row r="585" ht="14.25" customHeight="1"/>
+    <row r="586" ht="14.25" customHeight="1"/>
+    <row r="587" ht="14.25" customHeight="1"/>
+    <row r="588" ht="14.25" customHeight="1"/>
+    <row r="589" ht="14.25" customHeight="1"/>
+    <row r="590" ht="14.25" customHeight="1"/>
+    <row r="591" ht="14.25" customHeight="1"/>
+    <row r="592" ht="14.25" customHeight="1"/>
+    <row r="593" ht="14.25" customHeight="1"/>
+    <row r="594" ht="14.25" customHeight="1"/>
+    <row r="595" ht="14.25" customHeight="1"/>
+    <row r="596" ht="14.25" customHeight="1"/>
+    <row r="597" ht="14.25" customHeight="1"/>
+    <row r="598" ht="14.25" customHeight="1"/>
+    <row r="599" ht="14.25" customHeight="1"/>
+    <row r="600" ht="14.25" customHeight="1"/>
+    <row r="601" ht="14.25" customHeight="1"/>
+    <row r="602" ht="14.25" customHeight="1"/>
+    <row r="603" ht="14.25" customHeight="1"/>
+    <row r="604" ht="14.25" customHeight="1"/>
+    <row r="605" ht="14.25" customHeight="1"/>
+    <row r="606" ht="14.25" customHeight="1"/>
+    <row r="607" ht="14.25" customHeight="1"/>
+    <row r="608" ht="14.25" customHeight="1"/>
+    <row r="609" ht="14.25" customHeight="1"/>
+    <row r="610" ht="14.25" customHeight="1"/>
+    <row r="611" ht="14.25" customHeight="1"/>
+    <row r="612" ht="14.25" customHeight="1"/>
+    <row r="613" ht="14.25" customHeight="1"/>
+    <row r="614" ht="14.25" customHeight="1"/>
+    <row r="615" ht="14.25" customHeight="1"/>
+    <row r="616" ht="14.25" customHeight="1"/>
+    <row r="617" ht="14.25" customHeight="1"/>
+    <row r="618" ht="14.25" customHeight="1"/>
+    <row r="619" ht="14.25" customHeight="1"/>
+    <row r="620" ht="14.25" customHeight="1"/>
+    <row r="621" ht="14.25" customHeight="1"/>
+    <row r="622" ht="14.25" customHeight="1"/>
+    <row r="623" ht="14.25" customHeight="1"/>
+    <row r="624" ht="14.25" customHeight="1"/>
+    <row r="625" ht="14.25" customHeight="1"/>
+    <row r="626" ht="14.25" customHeight="1"/>
+    <row r="627" ht="14.25" customHeight="1"/>
+    <row r="628" ht="14.25" customHeight="1"/>
+    <row r="629" ht="14.25" customHeight="1"/>
+    <row r="630" ht="14.25" customHeight="1"/>
+    <row r="631" ht="14.25" customHeight="1"/>
+    <row r="632" ht="14.25" customHeight="1"/>
+    <row r="633" ht="14.25" customHeight="1"/>
+    <row r="634" ht="14.25" customHeight="1"/>
+    <row r="635" ht="14.25" customHeight="1"/>
+    <row r="636" ht="14.25" customHeight="1"/>
+    <row r="637" ht="14.25" customHeight="1"/>
+    <row r="638" ht="14.25" customHeight="1"/>
+    <row r="639" ht="14.25" customHeight="1"/>
+    <row r="640" ht="14.25" customHeight="1"/>
+    <row r="641" ht="14.25" customHeight="1"/>
+    <row r="642" ht="14.25" customHeight="1"/>
+    <row r="643" ht="14.25" customHeight="1"/>
+    <row r="644" ht="14.25" customHeight="1"/>
+    <row r="645" ht="14.25" customHeight="1"/>
+    <row r="646" ht="14.25" customHeight="1"/>
+    <row r="647" ht="14.25" customHeight="1"/>
+    <row r="648" ht="14.25" customHeight="1"/>
+    <row r="649" ht="14.25" customHeight="1"/>
+    <row r="650" ht="14.25" customHeight="1"/>
+    <row r="651" ht="14.25" customHeight="1"/>
+    <row r="652" ht="14.25" customHeight="1"/>
+    <row r="653" ht="14.25" customHeight="1"/>
+    <row r="654" ht="14.25" customHeight="1"/>
+    <row r="655" ht="14.25" customHeight="1"/>
+    <row r="656" ht="14.25" customHeight="1"/>
+    <row r="657" ht="14.25" customHeight="1"/>
+    <row r="658" ht="14.25" customHeight="1"/>
+    <row r="659" ht="14.25" customHeight="1"/>
+    <row r="660" ht="14.25" customHeight="1"/>
+    <row r="661" ht="14.25" customHeight="1"/>
+    <row r="662" ht="14.25" customHeight="1"/>
+    <row r="663" ht="14.25" customHeight="1"/>
+    <row r="664" ht="14.25" customHeight="1"/>
+    <row r="665" ht="14.25" customHeight="1"/>
+    <row r="666" ht="14.25" customHeight="1"/>
+    <row r="667" ht="14.25" customHeight="1"/>
+    <row r="668" ht="14.25" customHeight="1"/>
+    <row r="669" ht="14.25" customHeight="1"/>
+    <row r="670" ht="14.25" customHeight="1"/>
+    <row r="671" ht="14.25" customHeight="1"/>
+    <row r="672" ht="14.25" customHeight="1"/>
+    <row r="673" ht="14.25" customHeight="1"/>
+    <row r="674" ht="14.25" customHeight="1"/>
+    <row r="675" ht="14.25" customHeight="1"/>
+    <row r="676" ht="14.25" customHeight="1"/>
+    <row r="677" ht="14.25" customHeight="1"/>
+    <row r="678" ht="14.25" customHeight="1"/>
+    <row r="679" ht="14.25" customHeight="1"/>
+    <row r="680" ht="14.25" customHeight="1"/>
+    <row r="681" ht="14.25" customHeight="1"/>
+    <row r="682" ht="14.25" customHeight="1"/>
+    <row r="683" ht="14.25" customHeight="1"/>
+    <row r="684" ht="14.25" customHeight="1"/>
+    <row r="685" ht="14.25" customHeight="1"/>
+    <row r="686" ht="14.25" customHeight="1"/>
+    <row r="687" ht="14.25" customHeight="1"/>
+    <row r="688" ht="14.25" customHeight="1"/>
+    <row r="689" ht="14.25" customHeight="1"/>
+    <row r="690" ht="14.25" customHeight="1"/>
+    <row r="691" ht="14.25" customHeight="1"/>
+    <row r="692" ht="14.25" customHeight="1"/>
+    <row r="693" ht="14.25" customHeight="1"/>
+    <row r="694" ht="14.25" customHeight="1"/>
+    <row r="695" ht="14.25" customHeight="1"/>
+    <row r="696" ht="14.25" customHeight="1"/>
+    <row r="697" ht="14.25" customHeight="1"/>
+    <row r="698" ht="14.25" customHeight="1"/>
+    <row r="699" ht="14.25" customHeight="1"/>
+    <row r="700" ht="14.25" customHeight="1"/>
+    <row r="701" ht="14.25" customHeight="1"/>
+    <row r="702" ht="14.25" customHeight="1"/>
+    <row r="703" ht="14.25" customHeight="1"/>
+    <row r="704" ht="14.25" customHeight="1"/>
+    <row r="705" ht="14.25" customHeight="1"/>
+    <row r="706" ht="14.25" customHeight="1"/>
+    <row r="707" ht="14.25" customHeight="1"/>
+    <row r="708" ht="14.25" customHeight="1"/>
+    <row r="709" ht="14.25" customHeight="1"/>
+    <row r="710" ht="14.25" customHeight="1"/>
+    <row r="711" ht="14.25" customHeight="1"/>
+    <row r="712" ht="14.25" customHeight="1"/>
+    <row r="713" ht="14.25" customHeight="1"/>
+    <row r="714" ht="14.25" customHeight="1"/>
+    <row r="715" ht="14.25" customHeight="1"/>
+    <row r="716" ht="14.25" customHeight="1"/>
+    <row r="717" ht="14.25" customHeight="1"/>
+    <row r="718" ht="14.25" customHeight="1"/>
+    <row r="719" ht="14.25" customHeight="1"/>
+    <row r="720" ht="14.25" customHeight="1"/>
+    <row r="721" ht="14.25" customHeight="1"/>
+    <row r="722" ht="14.25" customHeight="1"/>
+    <row r="723" ht="14.25" customHeight="1"/>
+    <row r="724" ht="14.25" customHeight="1"/>
+    <row r="725" ht="14.25" customHeight="1"/>
+    <row r="726" ht="14.25" customHeight="1"/>
+    <row r="727" ht="14.25" customHeight="1"/>
+    <row r="728" ht="14.25" customHeight="1"/>
+    <row r="729" ht="14.25" customHeight="1"/>
+    <row r="730" ht="14.25" customHeight="1"/>
+    <row r="731" ht="14.25" customHeight="1"/>
+    <row r="732" ht="14.25" customHeight="1"/>
+    <row r="733" ht="14.25" customHeight="1"/>
+    <row r="734" ht="14.25" customHeight="1"/>
+    <row r="735" ht="14.25" customHeight="1"/>
+    <row r="736" ht="14.25" customHeight="1"/>
+    <row r="737" ht="14.25" customHeight="1"/>
+    <row r="738" ht="14.25" customHeight="1"/>
+    <row r="739" ht="14.25" customHeight="1"/>
+    <row r="740" ht="14.25" customHeight="1"/>
+    <row r="741" ht="14.25" customHeight="1"/>
+    <row r="742" ht="14.25" customHeight="1"/>
+    <row r="743" ht="14.25" customHeight="1"/>
+    <row r="744" ht="14.25" customHeight="1"/>
+    <row r="745" ht="14.25" customHeight="1"/>
+    <row r="746" ht="14.25" customHeight="1"/>
+    <row r="747" ht="14.25" customHeight="1"/>
+    <row r="748" ht="14.25" customHeight="1"/>
+    <row r="749" ht="14.25" customHeight="1"/>
+    <row r="750" ht="14.25" customHeight="1"/>
+    <row r="751" ht="14.25" customHeight="1"/>
+    <row r="752" ht="14.25" customHeight="1"/>
+    <row r="753" ht="14.25" customHeight="1"/>
+    <row r="754" ht="14.25" customHeight="1"/>
+    <row r="755" ht="14.25" customHeight="1"/>
+    <row r="756" ht="14.25" customHeight="1"/>
+    <row r="757" ht="14.25" customHeight="1"/>
+    <row r="758" ht="14.25" customHeight="1"/>
+    <row r="759" ht="14.25" customHeight="1"/>
+    <row r="760" ht="14.25" customHeight="1"/>
+    <row r="761" ht="14.25" customHeight="1"/>
+    <row r="762" ht="14.25" customHeight="1"/>
+    <row r="763" ht="14.25" customHeight="1"/>
+    <row r="764" ht="14.25" customHeight="1"/>
+    <row r="765" ht="14.25" customHeight="1"/>
+    <row r="766" ht="14.25" customHeight="1"/>
+    <row r="767" ht="14.25" customHeight="1"/>
+    <row r="768" ht="14.25" customHeight="1"/>
+    <row r="769" ht="14.25" customHeight="1"/>
+    <row r="770" ht="14.25" customHeight="1"/>
+    <row r="771" ht="14.25" customHeight="1"/>
+    <row r="772" ht="14.25" customHeight="1"/>
+    <row r="773" ht="14.25" customHeight="1"/>
+    <row r="774" ht="14.25" customHeight="1"/>
+    <row r="775" ht="14.25" customHeight="1"/>
+    <row r="776" ht="14.25" customHeight="1"/>
+    <row r="777" ht="14.25" customHeight="1"/>
+    <row r="778" ht="14.25" customHeight="1"/>
+    <row r="779" ht="14.25" customHeight="1"/>
+    <row r="780" ht="14.25" customHeight="1"/>
+    <row r="781" ht="14.25" customHeight="1"/>
+    <row r="782" ht="14.25" customHeight="1"/>
+    <row r="783" ht="14.25" customHeight="1"/>
+    <row r="784" ht="14.25" customHeight="1"/>
+    <row r="785" ht="14.25" customHeight="1"/>
+    <row r="786" ht="14.25" customHeight="1"/>
+    <row r="787" ht="14.25" customHeight="1"/>
+    <row r="788" ht="14.25" customHeight="1"/>
+    <row r="789" ht="14.25" customHeight="1"/>
+    <row r="790" ht="14.25" customHeight="1"/>
+    <row r="791" ht="14.25" customHeight="1"/>
+    <row r="792" ht="14.25" customHeight="1"/>
+    <row r="793" ht="14.25" customHeight="1"/>
+    <row r="794" ht="14.25" customHeight="1"/>
+    <row r="795" ht="14.25" customHeight="1"/>
+    <row r="796" ht="14.25" customHeight="1"/>
+    <row r="797" ht="14.25" customHeight="1"/>
+    <row r="798" ht="14.25" customHeight="1"/>
+    <row r="799" ht="14.25" customHeight="1"/>
+    <row r="800" ht="14.25" customHeight="1"/>
+    <row r="801" ht="14.25" customHeight="1"/>
+    <row r="802" ht="14.25" customHeight="1"/>
+    <row r="803" ht="14.25" customHeight="1"/>
+    <row r="804" ht="14.25" customHeight="1"/>
+    <row r="805" ht="14.25" customHeight="1"/>
+    <row r="806" ht="14.25" customHeight="1"/>
+    <row r="807" ht="14.25" customHeight="1"/>
+    <row r="808" ht="14.25" customHeight="1"/>
+    <row r="809" ht="14.25" customHeight="1"/>
+    <row r="810" ht="14.25" customHeight="1"/>
+    <row r="811" ht="14.25" customHeight="1"/>
+    <row r="812" ht="14.25" customHeight="1"/>
+    <row r="813" ht="14.25" customHeight="1"/>
+    <row r="814" ht="14.25" customHeight="1"/>
+    <row r="815" ht="14.25" customHeight="1"/>
+    <row r="816" ht="14.25" customHeight="1"/>
+    <row r="817" ht="14.25" customHeight="1"/>
+    <row r="818" ht="14.25" customHeight="1"/>
+    <row r="819" ht="14.25" customHeight="1"/>
+    <row r="820" ht="14.25" customHeight="1"/>
+    <row r="821" ht="14.25" customHeight="1"/>
+    <row r="822" ht="14.25" customHeight="1"/>
+    <row r="823" ht="14.25" customHeight="1"/>
+    <row r="824" ht="14.25" customHeight="1"/>
+    <row r="825" ht="14.25" customHeight="1"/>
+    <row r="826" ht="14.25" customHeight="1"/>
+    <row r="827" ht="14.25" customHeight="1"/>
+    <row r="828" ht="14.25" customHeight="1"/>
+    <row r="829" ht="14.25" customHeight="1"/>
+    <row r="830" ht="14.25" customHeight="1"/>
+    <row r="831" ht="14.25" customHeight="1"/>
+    <row r="832" ht="14.25" customHeight="1"/>
+    <row r="833" ht="14.25" customHeight="1"/>
+    <row r="834" ht="14.25" customHeight="1"/>
+    <row r="835" ht="14.25" customHeight="1"/>
+    <row r="836" ht="14.25" customHeight="1"/>
+    <row r="837" ht="14.25" customHeight="1"/>
+    <row r="838" ht="14.25" customHeight="1"/>
+    <row r="839" ht="14.25" customHeight="1"/>
+    <row r="840" ht="14.25" customHeight="1"/>
+    <row r="841" ht="14.25" customHeight="1"/>
+    <row r="842" ht="14.25" customHeight="1"/>
+    <row r="843" ht="14.25" customHeight="1"/>
+    <row r="844" ht="14.25" customHeight="1"/>
+    <row r="845" ht="14.25" customHeight="1"/>
+    <row r="846" ht="14.25" customHeight="1"/>
+    <row r="847" ht="14.25" customHeight="1"/>
+    <row r="848" ht="14.25" customHeight="1"/>
+    <row r="849" ht="14.25" customHeight="1"/>
+    <row r="850" ht="14.25" customHeight="1"/>
+    <row r="851" ht="14.25" customHeight="1"/>
+    <row r="852" ht="14.25" customHeight="1"/>
+    <row r="853" ht="14.25" customHeight="1"/>
+    <row r="854" ht="14.25" customHeight="1"/>
+    <row r="855" ht="14.25" customHeight="1"/>
+    <row r="856" ht="14.25" customHeight="1"/>
+    <row r="857" ht="14.25" customHeight="1"/>
+    <row r="858" ht="14.25" customHeight="1"/>
+    <row r="859" ht="14.25" customHeight="1"/>
+    <row r="860" ht="14.25" customHeight="1"/>
+    <row r="861" ht="14.25" customHeight="1"/>
+    <row r="862" ht="14.25" customHeight="1"/>
+    <row r="863" ht="14.25" customHeight="1"/>
+    <row r="864" ht="14.25" customHeight="1"/>
+    <row r="865" ht="14.25" customHeight="1"/>
+    <row r="866" ht="14.25" customHeight="1"/>
+    <row r="867" ht="14.25" customHeight="1"/>
+    <row r="868" ht="14.25" customHeight="1"/>
+    <row r="869" ht="14.25" customHeight="1"/>
+    <row r="870" ht="14.25" customHeight="1"/>
+    <row r="871" ht="14.25" customHeight="1"/>
+    <row r="872" ht="14.25" customHeight="1"/>
+    <row r="873" ht="14.25" customHeight="1"/>
+    <row r="874" ht="14.25" customHeight="1"/>
+    <row r="875" ht="14.25" customHeight="1"/>
+    <row r="876" ht="14.25" customHeight="1"/>
+    <row r="877" ht="14.25" customHeight="1"/>
+    <row r="878" ht="14.25" customHeight="1"/>
+    <row r="879" ht="14.25" customHeight="1"/>
+    <row r="880" ht="14.25" customHeight="1"/>
+    <row r="881" ht="14.25" customHeight="1"/>
+    <row r="882" ht="14.25" customHeight="1"/>
+    <row r="883" ht="14.25" customHeight="1"/>
+    <row r="884" ht="14.25" customHeight="1"/>
+    <row r="885" ht="14.25" customHeight="1"/>
+    <row r="886" ht="14.25" customHeight="1"/>
+    <row r="887" ht="14.25" customHeight="1"/>
+    <row r="888" ht="14.25" customHeight="1"/>
+    <row r="889" ht="14.25" customHeight="1"/>
+    <row r="890" ht="14.25" customHeight="1"/>
+    <row r="891" ht="14.25" customHeight="1"/>
+    <row r="892" ht="14.25" customHeight="1"/>
+    <row r="893" ht="14.25" customHeight="1"/>
+    <row r="894" ht="14.25" customHeight="1"/>
+    <row r="895" ht="14.25" customHeight="1"/>
+    <row r="896" ht="14.25" customHeight="1"/>
+    <row r="897" ht="14.25" customHeight="1"/>
+    <row r="898" ht="14.25" customHeight="1"/>
+    <row r="899" ht="14.25" customHeight="1"/>
+    <row r="900" ht="14.25" customHeight="1"/>
+    <row r="901" ht="14.25" customHeight="1"/>
+    <row r="902" ht="14.25" customHeight="1"/>
+    <row r="903" ht="14.25" customHeight="1"/>
+    <row r="904" ht="14.25" customHeight="1"/>
+    <row r="905" ht="14.25" customHeight="1"/>
+    <row r="906" ht="14.25" customHeight="1"/>
+    <row r="907" ht="14.25" customHeight="1"/>
+    <row r="908" ht="14.25" customHeight="1"/>
+    <row r="909" ht="14.25" customHeight="1"/>
+    <row r="910" ht="14.25" customHeight="1"/>
+    <row r="911" ht="14.25" customHeight="1"/>
+    <row r="912" ht="14.25" customHeight="1"/>
+    <row r="913" ht="14.25" customHeight="1"/>
+    <row r="914" ht="14.25" customHeight="1"/>
+    <row r="915" ht="14.25" customHeight="1"/>
+    <row r="916" ht="14.25" customHeight="1"/>
+    <row r="917" ht="14.25" customHeight="1"/>
+    <row r="918" ht="14.25" customHeight="1"/>
+    <row r="919" ht="14.25" customHeight="1"/>
+    <row r="920" ht="14.25" customHeight="1"/>
+    <row r="921" ht="14.25" customHeight="1"/>
+    <row r="922" ht="14.25" customHeight="1"/>
+    <row r="923" ht="14.25" customHeight="1"/>
+    <row r="924" ht="14.25" customHeight="1"/>
+    <row r="925" ht="14.25" customHeight="1"/>
+    <row r="926" ht="14.25" customHeight="1"/>
+    <row r="927" ht="14.25" customHeight="1"/>
+    <row r="928" ht="14.25" customHeight="1"/>
+    <row r="929" ht="14.25" customHeight="1"/>
+    <row r="930" ht="14.25" customHeight="1"/>
+    <row r="931" ht="14.25" customHeight="1"/>
+    <row r="932" ht="14.25" customHeight="1"/>
+    <row r="933" ht="14.25" customHeight="1"/>
+    <row r="934" ht="14.25" customHeight="1"/>
+    <row r="935" ht="14.25" customHeight="1"/>
+    <row r="936" ht="14.25" customHeight="1"/>
+    <row r="937" ht="14.25" customHeight="1"/>
+    <row r="938" ht="14.25" customHeight="1"/>
+    <row r="939" ht="14.25" customHeight="1"/>
+    <row r="940" ht="14.25" customHeight="1"/>
+    <row r="941" ht="14.25" customHeight="1"/>
+    <row r="942" ht="14.25" customHeight="1"/>
+    <row r="943" ht="14.25" customHeight="1"/>
+    <row r="944" ht="14.25" customHeight="1"/>
+    <row r="945" ht="14.25" customHeight="1"/>
+    <row r="946" ht="14.25" customHeight="1"/>
+    <row r="947" ht="14.25" customHeight="1"/>
+    <row r="948" ht="14.25" customHeight="1"/>
+    <row r="949" ht="14.25" customHeight="1"/>
+    <row r="950" ht="14.25" customHeight="1"/>
+    <row r="951" ht="14.25" customHeight="1"/>
+    <row r="952" ht="14.25" customHeight="1"/>
+    <row r="953" ht="14.25" customHeight="1"/>
+    <row r="954" ht="14.25" customHeight="1"/>
+    <row r="955" ht="14.25" customHeight="1"/>
+    <row r="956" ht="14.25" customHeight="1"/>
+    <row r="957" ht="14.25" customHeight="1"/>
+    <row r="958" ht="14.25" customHeight="1"/>
+    <row r="959" ht="14.25" customHeight="1"/>
+    <row r="960" ht="14.25" customHeight="1"/>
+    <row r="961" ht="14.25" customHeight="1"/>
+    <row r="962" ht="14.25" customHeight="1"/>
+    <row r="963" ht="14.25" customHeight="1"/>
+    <row r="964" ht="14.25" customHeight="1"/>
+    <row r="965" ht="14.25" customHeight="1"/>
+    <row r="966" ht="14.25" customHeight="1"/>
+    <row r="967" ht="14.25" customHeight="1"/>
+    <row r="968" ht="14.25" customHeight="1"/>
+    <row r="969" ht="14.25" customHeight="1"/>
+    <row r="970" ht="14.25" customHeight="1"/>
+    <row r="971" ht="14.25" customHeight="1"/>
+    <row r="972" ht="14.25" customHeight="1"/>
+    <row r="973" ht="14.25" customHeight="1"/>
+    <row r="974" ht="14.25" customHeight="1"/>
+    <row r="975" ht="14.25" customHeight="1"/>
+    <row r="976" ht="14.25" customHeight="1"/>
+    <row r="977" ht="14.25" customHeight="1"/>
+    <row r="978" ht="14.25" customHeight="1"/>
+    <row r="979" ht="14.25" customHeight="1"/>
+    <row r="980" ht="14.25" customHeight="1"/>
+    <row r="981" ht="14.25" customHeight="1"/>
+    <row r="982" ht="14.25" customHeight="1"/>
+    <row r="983" ht="14.25" customHeight="1"/>
+    <row r="984" ht="14.25" customHeight="1"/>
+    <row r="985" ht="14.25" customHeight="1"/>
+    <row r="986" ht="14.25" customHeight="1"/>
+    <row r="987" ht="14.25" customHeight="1"/>
+    <row r="988" ht="14.25" customHeight="1"/>
+    <row r="989" ht="14.25" customHeight="1"/>
+    <row r="990" ht="14.25" customHeight="1"/>
+    <row r="991" ht="14.25" customHeight="1"/>
+    <row r="992" ht="14.25" customHeight="1"/>
+    <row r="993" ht="14.25" customHeight="1"/>
+    <row r="994" ht="14.25" customHeight="1"/>
+    <row r="995" ht="14.25" customHeight="1"/>
+    <row r="996" ht="14.25" customHeight="1"/>
+    <row r="997" ht="14.25" customHeight="1"/>
+    <row r="998" ht="14.25" customHeight="1"/>
+    <row r="999" ht="14.25" customHeight="1"/>
+    <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1" xr:uid="{CFF18D88-4CF2-4BC3-8CDB-94840CA712D6}"/>
-    <hyperlink ref="E7" r:id="rId2" xr:uid="{A6E1BBF0-B270-40A7-B5BD-36ECF4313F78}"/>
-    <hyperlink ref="E8" r:id="rId3" xr:uid="{468EEF66-8F91-4910-8CD2-879A5D303187}"/>
-    <hyperlink ref="E9" r:id="rId4" xr:uid="{ECFE2E29-4F02-421B-97C8-DAED776A1980}"/>
-    <hyperlink ref="E11" r:id="rId5" xr:uid="{8380CBC8-E8F1-4C8C-8BD3-8361AF9E1779}"/>
-    <hyperlink ref="E13" r:id="rId6" xr:uid="{028CA428-28B2-4CC4-9802-5C12F358FBC2}"/>
-    <hyperlink ref="E14" r:id="rId7" xr:uid="{5073F8A4-2035-4CED-A3B2-5BA26DFB90E8}"/>
-    <hyperlink ref="E20" r:id="rId8" xr:uid="{0398F76E-8426-4192-A04C-995C9F19B1F1}"/>
-    <hyperlink ref="E18" r:id="rId9" xr:uid="{33D5ECCF-2C43-43DD-9860-5E84A5278790}"/>
-    <hyperlink ref="E19" r:id="rId10" xr:uid="{E0CCC2D7-F933-4C40-9D23-474ACDA6C511}"/>
-    <hyperlink ref="E17" r:id="rId11" xr:uid="{EA8331E2-C079-4455-96E9-321968E11AF0}"/>
-    <hyperlink ref="E21" r:id="rId12" xr:uid="{5BE2AF64-44D2-4204-B515-16B2422DB9B2}"/>
-    <hyperlink ref="E22" r:id="rId13" xr:uid="{382C56FF-AFE5-4EFD-917D-2F7E88A6FCC6}"/>
-    <hyperlink ref="E23" r:id="rId14" xr:uid="{7AD2454D-9D5E-471E-90AD-381E27986FC8}"/>
-    <hyperlink ref="E24" r:id="rId15" xr:uid="{06A294DB-14E5-4EF3-A2E6-104CCC11E600}"/>
-    <hyperlink ref="E25" r:id="rId16" xr:uid="{42539C8F-DB3B-47F6-A287-83BA07DCB90E}"/>
-    <hyperlink ref="E26" r:id="rId17" xr:uid="{CB875E88-12BC-4F41-B77D-A6321F88782E}"/>
+    <hyperlink r:id="rId1" ref="E6"/>
+    <hyperlink r:id="rId2" ref="E7"/>
+    <hyperlink r:id="rId3" ref="E8"/>
+    <hyperlink r:id="rId4" ref="E9"/>
+    <hyperlink r:id="rId5" ref="E11"/>
+    <hyperlink r:id="rId6" ref="E13"/>
+    <hyperlink r:id="rId7" ref="E14"/>
+    <hyperlink r:id="rId8" ref="E17"/>
+    <hyperlink r:id="rId9" ref="E18"/>
+    <hyperlink r:id="rId10" ref="E19"/>
+    <hyperlink r:id="rId11" ref="E20"/>
+    <hyperlink r:id="rId12" ref="E21"/>
+    <hyperlink r:id="rId13" ref="E22"/>
+    <hyperlink r:id="rId14" ref="E23"/>
+    <hyperlink r:id="rId15" ref="E24"/>
+    <hyperlink r:id="rId16" ref="E25"/>
+    <hyperlink r:id="rId17" ref="E26"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId18"/>
 </worksheet>
 </file>